--- a/data/W01_2026.xlsx
+++ b/data/W01_2026.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\TEST_selectableweek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CC06072-1D46-4F20-B034-D47232F0AC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0C9780-291C-4A77-BD6D-C8E1FE458626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,10 +195,10 @@
     <t>Extreme</t>
   </si>
   <si>
-    <t>4-11 Nov 2029</t>
-  </si>
-  <si>
     <t>Change of RMIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | 4-11 Nov 2029</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -662,7 +662,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
